--- a/pred_ohlcv/54_21/2019-10-28 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 PLY ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-617337.6524000003</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-158076.0569000003</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-496113.4645000002</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-744048.0535000003</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1816331.403685112</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1816331.403685112</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1832377.573785112</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1507233.427585111</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1521056.342685112</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1766835.400785112</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1877230.834785112</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-2771839.189185112</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-2828309.189185112</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-3625504.291185113</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-3466692.662185112</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-3706167.799285112</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-3706167.799285112</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-3567635.415685113</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-3485744.691085113</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-3485744.691085113</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-3332172.827985113</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-3535188.895685113</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-3700313.959685112</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-3701554.959685112</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-3704706.010785112</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-3857396.322885112</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-3857396.322885112</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-3722055.430685112</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-3859340.327885112</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-3859340.327885112</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-3796145.283685112</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-3951444.455385112</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-3951444.455385112</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-3757464.490185112</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-3757464.490185112</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-3757464.490185112</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-3797308.645285112</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-3797298.645285112</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-3797298.645285112</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-3887796.560685112</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-3887796.560685112</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-2957427.931485112</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2680661.915685112</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>15187485.91091489</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>55737505.91091489</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>16246614.41971489</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>16246614.41971489</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>16717849.59999138</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>16717849.59999138</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>16944546.39169138</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>16944546.39169138</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>17114257.03479138</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>17114257.03479138</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>16907079.87029138</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>16907079.87029138</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>16907079.87029138</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>17119771.05149138</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>17110080.50949138</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>17110080.50949138</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>16982691.56409138</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>17023686.06229138</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>16884006.03899138</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>16884026.03899138</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>16884026.03899138</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>16884036.03899138</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>16965524.50119138</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>16965524.50119138</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>16782732.27349138</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>17237769.69749139</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>17237769.69749139</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>17219705.08793718</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>17219705.08793718</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>17494398.14503718</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>17247044.21513718</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>17247044.21513718</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>17247044.21513718</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>17270231.83163718</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>17101336.51273718</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>17101336.51273718</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>17260176.76413718</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>17079793.88973718</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>17079793.88973718</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>17079793.88973718</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>17079793.88973718</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>16847088.21033718</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>16753496.17793718</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>15465636.67013718</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 PLY ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-496113.4645000002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-496113.4645000002</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -756,7 +756,7 @@
         <v>77119.24629999977</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-273595.0665000002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-273595.0665000002</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-273595.0665000002</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-424157.3668000003</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-424157.3668000003</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-50019.73620000028</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-50019.73620000028</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-22816.73620000028</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-89112.23460000027</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-89102.23460000027</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-89102.23460000027</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>197942.6509999997</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1816331.403685112</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1816331.403685112</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1832377.573785112</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1507233.427585111</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1086358.117485111</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1440956.535585111</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1766835.400785112</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1877230.834785112</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-2253169.834785112</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-2741514.961785112</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-2771849.189185112</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-2771839.189185112</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-2828319.189185112</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-2828309.189185112</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-3466692.662185112</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-3466692.662185112</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3706167.799285112</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-3706167.799285112</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-3706167.799285112</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-3332172.827985113</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-3535188.895685113</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-3700313.959685112</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-3701554.959685112</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-3773565.430885112</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-3857396.322885112</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-3797298.645285112</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2680661.915685112</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>15187485.91091489</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>55737505.91091489</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>16246624.41971489</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>16246614.41971489</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>16246614.41971489</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>16717849.59999138</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>16717849.59999138</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>16944546.39169138</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>16944546.39169138</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>17114257.03479138</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>17114257.03479138</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>16907079.87029138</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>16907079.87029138</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>16907079.87029138</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>17119771.05149138</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>17110080.50949138</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>17110080.50949138</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>16982691.56409138</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>17023686.06229138</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>16884006.03899138</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>16884026.03899138</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>16884026.03899138</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>16884036.03899138</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>16965524.50119138</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>16965524.50119138</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>16782732.27349138</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>17535631.75409139</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>17535631.75409139</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>17174760.08429139</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>16995208.18409139</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>17237769.69749139</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>17237769.69749139</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>17219705.08793718</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>17219705.08793718</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>17494398.14503718</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>17247044.21513718</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>17247044.21513718</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>17247044.21513718</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>17270231.83163718</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>17101336.51273718</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>17101336.51273718</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>17260176.76413718</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>17079793.88973718</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>17079793.88973718</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>17079793.88973718</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>17079793.88973718</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>16847088.21033718</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>16753496.17793718</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>15465636.67013718</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>12916672.16256638</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>12916672.16256638</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>12916672.16256638</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>13551690.51709289</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>13551690.51709289</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>13143835.91399289</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>13143835.91399289</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>13143835.91399289</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>13143835.91399289</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>12582593.22309289</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>12673308.62839289</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>12673308.62839289</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>11801173.58259289</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
